--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>50.80855966666667</v>
+        <v>0.4918566666666667</v>
       </c>
       <c r="H2">
-        <v>152.425679</v>
+        <v>1.47557</v>
       </c>
       <c r="I2">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093636</v>
       </c>
       <c r="J2">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093637</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N2">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q2">
-        <v>347.5435381750881</v>
+        <v>4.563584037152222</v>
       </c>
       <c r="R2">
-        <v>3127.891843575793</v>
+        <v>41.07225633437</v>
       </c>
       <c r="S2">
-        <v>0.03089561777023849</v>
+        <v>0.0004969269906575721</v>
       </c>
       <c r="T2">
-        <v>0.03089561777023849</v>
+        <v>0.0004969269906575722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>50.80855966666667</v>
+        <v>0.4918566666666667</v>
       </c>
       <c r="H3">
-        <v>152.425679</v>
+        <v>1.47557</v>
       </c>
       <c r="I3">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093636</v>
       </c>
       <c r="J3">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093637</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.245969</v>
       </c>
       <c r="O3">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P3">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q3">
-        <v>478.3790004264389</v>
+        <v>4.63098938637</v>
       </c>
       <c r="R3">
-        <v>4305.411003837951</v>
+        <v>41.67890447733</v>
       </c>
       <c r="S3">
-        <v>0.04252651286250681</v>
+        <v>0.0005042667343915158</v>
       </c>
       <c r="T3">
-        <v>0.04252651286250682</v>
+        <v>0.0005042667343915158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>50.80855966666667</v>
+        <v>0.4918566666666667</v>
       </c>
       <c r="H4">
-        <v>152.425679</v>
+        <v>1.47557</v>
       </c>
       <c r="I4">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093636</v>
       </c>
       <c r="J4">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093637</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N4">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q4">
-        <v>275.8200244539289</v>
+        <v>3.459353360116667</v>
       </c>
       <c r="R4">
-        <v>2482.38022008536</v>
+        <v>31.13418024105</v>
       </c>
       <c r="S4">
-        <v>0.02451960434555204</v>
+        <v>0.0003766877175634655</v>
       </c>
       <c r="T4">
-        <v>0.02451960434555204</v>
+        <v>0.0003766877175634655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>50.80855966666667</v>
+        <v>0.4918566666666667</v>
       </c>
       <c r="H5">
-        <v>152.425679</v>
+        <v>1.47557</v>
       </c>
       <c r="I5">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093636</v>
       </c>
       <c r="J5">
-        <v>0.1328146143749533</v>
+        <v>0.002340719790093637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N5">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O5">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P5">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q5">
-        <v>392.2835912199143</v>
+        <v>8.84233256702</v>
       </c>
       <c r="R5">
-        <v>3530.552320979229</v>
+        <v>79.58099310317999</v>
       </c>
       <c r="S5">
-        <v>0.034872879396656</v>
+        <v>0.0009628383474810827</v>
       </c>
       <c r="T5">
-        <v>0.034872879396656</v>
+        <v>0.0009628383474810827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>20.091904</v>
       </c>
       <c r="I6">
-        <v>0.01750688269408058</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="J6">
-        <v>0.01750688269408059</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N6">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O6">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P6">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q6">
-        <v>45.81125339670756</v>
+        <v>62.13943924747377</v>
       </c>
       <c r="R6">
-        <v>412.301280570368</v>
+        <v>559.254953227264</v>
       </c>
       <c r="S6">
-        <v>0.004072488246946407</v>
+        <v>0.006766340730226853</v>
       </c>
       <c r="T6">
-        <v>0.004072488246946408</v>
+        <v>0.006766340730226853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>20.091904</v>
       </c>
       <c r="I7">
-        <v>0.01750688269408058</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="J7">
-        <v>0.01750688269408059</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>28.245969</v>
       </c>
       <c r="O7">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P7">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q7">
         <v>63.05725528166399</v>
@@ -883,10 +883,10 @@
         <v>567.515297534976</v>
       </c>
       <c r="S7">
-        <v>0.00560560805432431</v>
+        <v>0.006866281381288474</v>
       </c>
       <c r="T7">
-        <v>0.005605608054324313</v>
+        <v>0.006866281381288473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>20.091904</v>
       </c>
       <c r="I8">
-        <v>0.01750688269408058</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="J8">
-        <v>0.01750688269408059</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N8">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O8">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P8">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q8">
-        <v>36.35705931548444</v>
+        <v>47.10382808917333</v>
       </c>
       <c r="R8">
-        <v>327.21353383936</v>
+        <v>423.93445280256</v>
       </c>
       <c r="S8">
-        <v>0.00323203767147932</v>
+        <v>0.005129118550298707</v>
       </c>
       <c r="T8">
-        <v>0.003232037671479321</v>
+        <v>0.005129118550298706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>20.091904</v>
       </c>
       <c r="I9">
-        <v>0.01750688269408058</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="J9">
-        <v>0.01750688269408059</v>
+        <v>0.03187210184095739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N9">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O9">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P9">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q9">
-        <v>51.70863798852267</v>
+        <v>120.400453433344</v>
       </c>
       <c r="R9">
-        <v>465.377741896704</v>
+        <v>1083.604080900096</v>
       </c>
       <c r="S9">
-        <v>0.004596748721330545</v>
+        <v>0.01311036117914335</v>
       </c>
       <c r="T9">
-        <v>0.004596748721330546</v>
+        <v>0.01311036117914335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.32063566666667</v>
+        <v>6.424796000000001</v>
       </c>
       <c r="H10">
-        <v>39.961907</v>
+        <v>19.274388</v>
       </c>
       <c r="I10">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="J10">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N10">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O10">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P10">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q10">
-        <v>91.11655360251878</v>
+        <v>59.61105837247867</v>
       </c>
       <c r="R10">
-        <v>820.0489824226689</v>
+        <v>536.4995253523081</v>
       </c>
       <c r="S10">
-        <v>0.008099998715057833</v>
+        <v>0.006491026264837603</v>
       </c>
       <c r="T10">
-        <v>0.008099998715057833</v>
+        <v>0.006491026264837603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.32063566666667</v>
+        <v>6.424796000000001</v>
       </c>
       <c r="H11">
-        <v>39.961907</v>
+        <v>19.274388</v>
       </c>
       <c r="I11">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="J11">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.245969</v>
       </c>
       <c r="O11">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P11">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q11">
-        <v>125.418087366987</v>
+        <v>60.491529549108</v>
       </c>
       <c r="R11">
-        <v>1128.762786302883</v>
+        <v>544.4237659419721</v>
       </c>
       <c r="S11">
-        <v>0.01114930609589609</v>
+        <v>0.00658690044806754</v>
       </c>
       <c r="T11">
-        <v>0.01114930609589609</v>
+        <v>0.006586900448067539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.32063566666667</v>
+        <v>6.424796000000001</v>
       </c>
       <c r="H12">
-        <v>39.961907</v>
+        <v>19.274388</v>
       </c>
       <c r="I12">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="J12">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N12">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O12">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P12">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q12">
-        <v>72.31258038854223</v>
+        <v>45.18722859098001</v>
       </c>
       <c r="R12">
-        <v>650.8132234968799</v>
+        <v>406.68505731882</v>
       </c>
       <c r="S12">
-        <v>0.006428379751772312</v>
+        <v>0.004920420734463732</v>
       </c>
       <c r="T12">
-        <v>0.006428379751772313</v>
+        <v>0.004920420734463731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.32063566666667</v>
+        <v>6.424796000000001</v>
       </c>
       <c r="H13">
-        <v>39.961907</v>
+        <v>19.274388</v>
       </c>
       <c r="I13">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="J13">
-        <v>0.03482041413699556</v>
+        <v>0.03057526341247335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N13">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O13">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P13">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q13">
-        <v>102.8461903060063</v>
+        <v>115.501500248568</v>
       </c>
       <c r="R13">
-        <v>925.615712754057</v>
+        <v>1039.513502237112</v>
       </c>
       <c r="S13">
-        <v>0.009142729574269325</v>
+        <v>0.01257691596510448</v>
       </c>
       <c r="T13">
-        <v>0.009142729574269325</v>
+        <v>0.01257691596510447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>311.72598</v>
+        <v>196.516566</v>
       </c>
       <c r="H14">
-        <v>935.1779399999999</v>
+        <v>589.549698</v>
       </c>
       <c r="I14">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="J14">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N14">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O14">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P14">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q14">
-        <v>2132.28540114222</v>
+        <v>1823.335789492002</v>
       </c>
       <c r="R14">
-        <v>19190.56861027998</v>
+        <v>16410.02210542802</v>
       </c>
       <c r="S14">
-        <v>0.1895540198407056</v>
+        <v>0.1985423648286564</v>
       </c>
       <c r="T14">
-        <v>0.1895540198407056</v>
+        <v>0.1985423648286564</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>311.72598</v>
+        <v>196.516566</v>
       </c>
       <c r="H15">
-        <v>935.1779399999999</v>
+        <v>589.549698</v>
       </c>
       <c r="I15">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="J15">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.245969</v>
       </c>
       <c r="O15">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P15">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q15">
-        <v>2935.00078919154</v>
+        <v>1850.266943740818</v>
       </c>
       <c r="R15">
-        <v>26415.00710272386</v>
+        <v>16652.40249366736</v>
       </c>
       <c r="S15">
-        <v>0.2609131017493622</v>
+        <v>0.2014748883292317</v>
       </c>
       <c r="T15">
-        <v>0.2609131017493622</v>
+        <v>0.2014748883292316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>311.72598</v>
+        <v>196.516566</v>
       </c>
       <c r="H16">
-        <v>935.1779399999999</v>
+        <v>589.549698</v>
       </c>
       <c r="I16">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="J16">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N16">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O16">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P16">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q16">
-        <v>1692.2398113744</v>
+        <v>1382.15112040233</v>
       </c>
       <c r="R16">
-        <v>15230.1583023696</v>
+        <v>12439.36008362097</v>
       </c>
       <c r="S16">
-        <v>0.1504352365816812</v>
+        <v>0.1505019281564754</v>
       </c>
       <c r="T16">
-        <v>0.1504352365816812</v>
+        <v>0.1505019281564754</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>311.72598</v>
+        <v>196.516566</v>
       </c>
       <c r="H17">
-        <v>935.1779399999999</v>
+        <v>589.549698</v>
       </c>
       <c r="I17">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="J17">
-        <v>0.8148580887939705</v>
+        <v>0.9352119149564756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N17">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O17">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P17">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q17">
-        <v>2406.77924572566</v>
+        <v>3532.868311569228</v>
       </c>
       <c r="R17">
-        <v>21661.01321153094</v>
+        <v>31795.81480412305</v>
       </c>
       <c r="S17">
-        <v>0.2139557306222214</v>
+        <v>0.3846927336421122</v>
       </c>
       <c r="T17">
-        <v>0.2139557306222214</v>
+        <v>0.3846927336421121</v>
       </c>
     </row>
   </sheetData>
